--- a/foodsalesfile.xlsx
+++ b/foodsalesfile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\foodsale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\foodsales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222B6448-0C38-4F0E-99BB-939640B754BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A09E98C-13B7-43BD-B71D-4089E9063DD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{E06EB0C0-253C-41B5-A9CC-04270E187FE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17ED944-266F-4B9D-93C4-34C987665866}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="B6" sqref="B6:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,6 +546,98 @@
         <v>1.77</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>44958</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>44958</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>44958</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>44958</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>33</v>
+      </c>
+      <c r="H9">
+        <v>1.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
